--- a/individual_results/avey/182.xlsx
+++ b/individual_results/avey/182.xlsx
@@ -582,25 +582,25 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O2" t="n">
         <v>0.25</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" t="n">
         <v>0.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0.3333333333333333</v>
@@ -673,7 +673,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -723,27 +723,23 @@
       <c r="K4" t="n">
         <v>0.5</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.2857142857142858</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>0.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O4" t="n">
         <v>0.2857142857142858</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4" t="n">
         <v>0.5714285714285715</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
         <v>0.5</v>
@@ -790,27 +786,23 @@
       <c r="K5" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.3125</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>0.3571428571428571</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="O5" t="n">
         <v>0.3125</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7894736842105262</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q5" t="n">
         <v>0.625</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.3571428571428571</v>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
         <v>0.3846153846153846</v>
@@ -862,25 +854,25 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3726262671130988</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0.1064646477465997</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6076969782038598</v>
+        <v>0.6920202103528978</v>
       </c>
       <c r="O6" t="n">
         <v>0.7452525342261976</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6178527933664474</v>
+        <v>0.6251585637206358</v>
       </c>
       <c r="Q6" t="n">
         <v>0.7984848580994974</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4702019977678391</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1008,13 +1000,13 @@
         <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1026,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1081,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -1099,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -1147,12 +1139,10 @@
       <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -1163,9 +1153,7 @@
       <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
         <v>1</v>
@@ -1221,13 +1209,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N11" t="n">
-        <v>2.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>1.333333333333333</v>
       </c>
       <c r="P11" t="n">
-        <v>2.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
         <v>1.333333333333333</v>
